--- a/topic03-microsoft-excel/unit-3-labs-week-7/archive-2/exercise-3/Exercises-3.xlsx
+++ b/topic03-microsoft-excel/unit-3-labs-week-7/archive-2/exercise-3/Exercises-3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/topicxx-wip/excel /unit-3-labs-week-7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/topic03-microsoft-excel/unit-3-labs-week-7/archive-2/exercise-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CE6DA9-5FE0-5343-9911-49D2B1816223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F6322F-BBB7-ED42-81F8-21F947402A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2920" windowWidth="30240" windowHeight="17840" tabRatio="749" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PloughingChampionship" sheetId="20" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>Year</t>
   </si>
@@ -225,12 +225,6 @@
     <t>rate of interest p.a.</t>
   </si>
   <si>
-    <t>Student Results</t>
-  </si>
-  <si>
-    <t>with =SUMPRDOUCT</t>
-  </si>
-  <si>
     <t>Format all numerical answers to 2 places of decimal, read all questions carefully.</t>
   </si>
   <si>
@@ -243,15 +237,6 @@
     <t>Calculate each students correct weighted result and then the overall average.</t>
   </si>
   <si>
-    <t>Exam 1</t>
-  </si>
-  <si>
-    <t>Exam 2</t>
-  </si>
-  <si>
-    <t>Exam 3</t>
-  </si>
-  <si>
     <t>Overall</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>Gamma, G</t>
   </si>
   <si>
-    <t xml:space="preserve"> Overall Average for 4 --&gt;</t>
-  </si>
-  <si>
     <t>Part 2</t>
   </si>
   <si>
@@ -288,122 +270,125 @@
     <t>Omit the 4th student from the Overall average answer.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Overall Average for 3--&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">INSTRUCTIONS FOR THIS SHEET: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">Student Results -weighting of marks, sorting, conditional formatting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tractor Hours </t>
+  </si>
+  <si>
+    <t>Number of Tractors</t>
+  </si>
+  <si>
+    <t>Tractors Model</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Instructions </t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert a Pie chart for the number of tractors. </t>
+  </si>
+  <si>
+    <t>John Deer</t>
+  </si>
+  <si>
+    <t>Add a Title 'Tractors Numbers 2020'. Show the percentage breakdown.</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert  a Bar chart for Tractor Hours.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a Title  'Tractor Hours 2020'.  Add an X axis title. Remove the gridlines.  Add a border. </t>
+  </si>
+  <si>
+    <t>Tractor Hours Used</t>
+  </si>
+  <si>
+    <t>Change the bounds of the axis to maximun 1200. Place tick marks on the axis also.</t>
+  </si>
+  <si>
+    <t>Tractor Reg</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw a scatter graph for machinery costs .  </t>
+  </si>
+  <si>
+    <t>11 WD 621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Title 'Cost of Tractor Breakdowns'. Add X axis title.  Add a Y axis title .  </t>
+  </si>
+  <si>
+    <t>13 Wd 906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the bounds of the axis to minimum 1000.  Add a trend line 13.  Add equation of line and r squared value. </t>
+  </si>
+  <si>
+    <t>19 Wd 531</t>
+  </si>
+  <si>
+    <t>15 Wd 468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of tractor break downs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year </t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Results (ICT for Scientists) </t>
+  </si>
+  <si>
+    <t>Ms Word</t>
+  </si>
+  <si>
+    <t>Ms Excel</t>
+  </si>
+  <si>
+    <t>Ms PowerPoint</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Zzzz, z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Overall Average for 5 students --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Overall Average for 5 students--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTRUCTIONS FOR THIS SHEET: 
 (All Results to 2 decimal places)
 Part 1) 
-You are asked to calculate the results for the 4 students over 3 exams with percentage weights of 20%, 20% and 60%  for exams 1,2 and 3 respectively. 
-You are asked to calculate the overall average of the 4 students. 
+You are asked to calculate the results for the 5 students overthe 4 elements of assessment with percentage weights of 20%(MS Word) , 50%(Ms Excel), 20%(Ms Powerpoint)  and 10%  (attendance)
+You are asked to calculate the overall average of the 5 students. 
 Use conditional formatting on the overall marks so that any marks &lt; 40 are shaded in red and any marks &gt;= 40 are shaded in green.
 Part 2) 
-You are asked to calculate the results for the 4 students over 3 exams with new percentage weights of 10%, 30% and 60% for exams 1,2 and 3 respectively. 
-You are asked to calculate the overall average of the 4 students. 
+You are asked to calculate the results for the 5 students (copy down the names) over 4 assessment  exams with new percentage weights of 10%(Ms Word) , 30%(MS Excel), 40%(Ms PowerPoint) and 20% (attendance).
+You are asked to calculate the overall average of the 5 students. 
 Use conditional formatting on the overall marks so that any marks &lt; 40 are shaded in red and any marks &gt;= 40 are shaded in green.
-The data should be sorted on name in ascending order. 
+The data should be sorted on name in ascending order.
+Part 3) 
+Copy the details again (with weightings) from Part 1. This time, sort based on the overall mark in Descending order. 
 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Student Results -weighting of marks, sorting, conditional formatting. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tractor Hours </t>
-  </si>
-  <si>
-    <t>Number of Tractors</t>
-  </si>
-  <si>
-    <t>Tractors Model</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Instructions </t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert a Pie chart for the number of tractors. </t>
-  </si>
-  <si>
-    <t>John Deer</t>
-  </si>
-  <si>
-    <t>Add a Title 'Tractors Numbers 2020'. Show the percentage breakdown.</t>
-  </si>
-  <si>
-    <t>Fiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert  a Bar chart for Tractor Hours.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add a Title  'Tractor Hours 2020'.  Add an X axis title. Remove the gridlines.  Add a border. </t>
-  </si>
-  <si>
-    <t>Tractor Hours Used</t>
-  </si>
-  <si>
-    <t>Change the bounds of the axis to maximun 1200. Place tick marks on the axis also.</t>
-  </si>
-  <si>
-    <t>Tractor Reg</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Draw a scatter graph for machinery costs .  </t>
-  </si>
-  <si>
-    <t>11 WD 621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Title 'Cost of Tractor Breakdowns'. Add X axis title.  Add a Y axis title .  </t>
-  </si>
-  <si>
-    <t>13 Wd 906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the bounds of the axis to minimum 1000.  Add a trend line 13.  Add equation of line and r squared value. </t>
-  </si>
-  <si>
-    <t>19 Wd 531</t>
-  </si>
-  <si>
-    <t>15 Wd 468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost of tractor break downs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year </t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -415,12 +400,19 @@
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="#,##0_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -878,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1136,48 +1128,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1189,15 +1139,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1226,361 +1167,359 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="13" borderId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="13" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyNumberFormat="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="36" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="18" xfId="73" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" xfId="73" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="19" borderId="16" xfId="72" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="43" fillId="18" borderId="22" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="43" fillId="18" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="26" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="35" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="18" xfId="73" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" xfId="73" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="71" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="71" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="71" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="19" borderId="16" xfId="72" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="42" fillId="18" borderId="27" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="42" fillId="18" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="71" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -1660,38 +1599,7 @@
     <cellStyle name="Wrap Title" xfId="59" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Wrap_NTS99-~11" xfId="60" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2151,14 +2059,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
       <c r="H1" s="5"/>
       <c r="I1" s="3"/>
     </row>
@@ -2209,7 +2117,7 @@
       <c r="H4" s="19">
         <v>1</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2245,7 +2153,7 @@
       <c r="H6" s="19">
         <v>3</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2263,7 +2171,7 @@
       <c r="H7" s="19">
         <v>4</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="8"/>
@@ -2286,7 +2194,7 @@
       <c r="H8" s="19">
         <v>5</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2444,508 +2352,508 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="29">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-    </row>
-    <row r="6" spans="1:12" s="37" customFormat="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" s="37" customFormat="1" ht="32">
-      <c r="A7" s="38" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" s="36" customFormat="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" s="36" customFormat="1" ht="32">
+      <c r="A7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>4500</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>0.09</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="25" thickBot="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="33" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="30" t="e" vm="1">
+      <c r="A18" s="29" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2955,367 +2863,516 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AED8B6-C8E4-1946-80AA-C7F047103217}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="21">
-      <c r="A2" s="29"/>
-      <c r="C2" s="39" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="21">
+      <c r="A2" s="28"/>
+      <c r="C2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="M2" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+    </row>
+    <row r="3" spans="1:22" ht="31.25" customHeight="1">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="D3" s="39"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="31.25" customHeight="1" thickBot="1">
-      <c r="A3" t="s">
+      <c r="D4" s="39"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+    </row>
+    <row r="5" spans="1:22" ht="21" customHeight="1">
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="40"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="O4" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="59"/>
-    </row>
-    <row r="5" spans="1:20" ht="21" customHeight="1">
-      <c r="O5" s="60"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="62"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="41" t="s">
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="90"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="41"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+    </row>
+    <row r="8" spans="1:22" s="36" customFormat="1" ht="32">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="62"/>
-    </row>
-    <row r="7" spans="1:20" ht="16" thickBot="1">
-      <c r="A7" s="42"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="C8" s="43" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="87">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="87">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="87">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="87">
+        <v>1</v>
+      </c>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A10" s="86"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86">
+        <v>67</v>
+      </c>
+      <c r="D11" s="86">
+        <v>23</v>
+      </c>
+      <c r="E11" s="86">
+        <v>56</v>
+      </c>
+      <c r="F11" s="86">
+        <v>78</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86">
+        <v>24</v>
+      </c>
+      <c r="D12" s="86">
+        <v>39</v>
+      </c>
+      <c r="E12" s="86">
+        <v>23</v>
+      </c>
+      <c r="F12" s="86">
+        <v>56</v>
+      </c>
+      <c r="G12" s="86"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86">
+        <v>40</v>
+      </c>
+      <c r="D13" s="86">
+        <v>60</v>
+      </c>
+      <c r="E13" s="86">
+        <v>44</v>
+      </c>
+      <c r="F13" s="86">
+        <v>67</v>
+      </c>
+      <c r="G13" s="86"/>
+      <c r="K13" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86">
+        <v>33</v>
+      </c>
+      <c r="D14" s="86">
+        <v>46</v>
+      </c>
+      <c r="E14" s="86">
+        <v>55</v>
+      </c>
+      <c r="F14" s="86">
+        <v>67</v>
+      </c>
+      <c r="G14" s="86"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+    </row>
+    <row r="15" spans="1:22" ht="16" thickBot="1">
+      <c r="A15" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="60"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
-    </row>
-    <row r="9" spans="1:20" ht="16" thickBot="1">
-      <c r="A9" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="47">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="49">
-        <v>0.6</v>
-      </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="O10" s="60"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86">
+        <v>23</v>
+      </c>
+      <c r="D15" s="86">
+        <v>45</v>
+      </c>
+      <c r="E15" s="86">
+        <v>12</v>
+      </c>
+      <c r="F15" s="86">
+        <v>77</v>
+      </c>
+      <c r="G15" s="86"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+    </row>
+    <row r="16" spans="1:22" ht="25" thickBot="1">
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1">
+      <c r="K17" s="45"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+    </row>
+    <row r="18" spans="1:22" ht="16" thickBot="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C11">
-        <v>67</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>56</v>
-      </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="62"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12">
+      <c r="K19" s="45"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="45"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="B21" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E12">
-        <v>23</v>
-      </c>
-      <c r="O12" s="60"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>44</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="60"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="62"/>
-    </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>46</v>
-      </c>
-      <c r="E14">
-        <v>55</v>
-      </c>
-      <c r="O14" s="60"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="62"/>
-    </row>
-    <row r="15" spans="1:20" ht="25" thickBot="1">
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="51"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="62"/>
-    </row>
-    <row r="16" spans="1:20" ht="18.75" customHeight="1">
-      <c r="K16" s="52"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="62"/>
-    </row>
-    <row r="17" spans="1:20" ht="16" thickBot="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="62"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="52"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="62"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="52"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="62"/>
-    </row>
-    <row r="20" spans="1:20" ht="16" thickBot="1">
-      <c r="B20" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="52"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="62"/>
-    </row>
-    <row r="21" spans="1:20" ht="21.5" customHeight="1">
-      <c r="C21" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="52"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="62"/>
-    </row>
-    <row r="22" spans="1:20" ht="16" thickBot="1">
-      <c r="A22" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="K22" s="52"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="62"/>
-    </row>
-    <row r="23" spans="1:20" ht="16" thickBot="1">
-      <c r="J23" t="s">
+      <c r="K21" s="45"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+    </row>
+    <row r="22" spans="1:22" ht="34" customHeight="1">
+      <c r="C22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="45"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="J24" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="65"/>
-    </row>
-    <row r="27" spans="1:20" ht="16" thickBot="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-    </row>
-    <row r="28" spans="1:20" ht="25" thickBot="1">
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="51"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="K29" s="52"/>
-    </row>
-    <row r="30" spans="1:20" ht="5.5" customHeight="1">
-      <c r="K30" s="52"/>
+      <c r="K24" s="45"/>
+    </row>
+    <row r="28" spans="1:22" ht="16" thickBot="1">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="1:22" ht="25" thickBot="1">
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="K30" s="45"/>
+    </row>
+    <row r="31" spans="1:22" ht="5.5" customHeight="1">
+      <c r="K31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O4:T23"/>
+    <mergeCell ref="M2:V22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3325,7 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD1A1D9-D54F-BD4E-823B-46FC16604DCB}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3337,369 +3394,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20">
-      <c r="A1" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="A1" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:17" ht="16">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:17" ht="17" thickBot="1">
-      <c r="A3" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="68"/>
+      <c r="A3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:17" ht="20" thickBot="1">
-      <c r="A4" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
+      <c r="A4" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
     </row>
     <row r="5" spans="1:17" ht="19">
-      <c r="A5" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="78">
+      <c r="A5" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="60">
         <v>5</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="F5" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="1:17" ht="19">
-      <c r="A6" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="82">
+      <c r="A6" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="64">
         <v>10</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="F6" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="62"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="19">
-      <c r="A7" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="82">
+      <c r="A7" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="64">
         <v>8</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="84"/>
+      <c r="F7" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="1:17" ht="19">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="D8" s="72"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="19">
         <v>4</v>
       </c>
-      <c r="F8" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
+      <c r="F8" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="1:17" ht="20" thickBot="1">
-      <c r="A9" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="68"/>
-      <c r="D9" s="72"/>
+      <c r="A9" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="19">
         <v>5</v>
       </c>
-      <c r="F9" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="F9" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
     </row>
     <row r="10" spans="1:17" ht="20" thickBot="1">
-      <c r="A10" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="72"/>
+      <c r="A10" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="54"/>
       <c r="E10" s="19">
         <v>6</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+    </row>
+    <row r="11" spans="1:17" ht="19">
+      <c r="A11" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="60">
+        <v>500</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="68">
+        <v>7</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="20" thickBot="1">
+      <c r="A12" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="64">
+        <v>900</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="69">
+        <v>8</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18">
+      <c r="A13" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="64">
+        <v>1200</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="67"/>
+    </row>
+    <row r="14" spans="1:17" ht="18">
+      <c r="A14" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="64">
+        <v>600</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="67"/>
+    </row>
+    <row r="15" spans="1:17" ht="18">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="67"/>
+    </row>
+    <row r="16" spans="1:17" ht="19" thickBot="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="67"/>
+    </row>
+    <row r="17" spans="1:17" ht="18">
+      <c r="A17" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="67"/>
+    </row>
+    <row r="18" spans="1:17" ht="18">
+      <c r="A18" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-    </row>
-    <row r="11" spans="1:17" ht="19">
-      <c r="A11" s="78" t="s">
+      <c r="B18" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="78">
-        <v>500</v>
-      </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="86">
-        <v>7</v>
-      </c>
-      <c r="F11" s="83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="20" thickBot="1">
-      <c r="A12" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="82">
-        <v>900</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="87">
-        <v>8</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18">
-      <c r="A13" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="82">
-        <v>1200</v>
-      </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="85"/>
-    </row>
-    <row r="14" spans="1:17" ht="18">
-      <c r="A14" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="82">
-        <v>600</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="85"/>
-    </row>
-    <row r="15" spans="1:17" ht="18">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="85"/>
-    </row>
-    <row r="16" spans="1:17" ht="19" thickBot="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="85"/>
-    </row>
-    <row r="17" spans="1:17" ht="18">
-      <c r="A17" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="85"/>
-    </row>
-    <row r="18" spans="1:17" ht="18">
-      <c r="A18" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="85"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" spans="1:17" ht="18">
-      <c r="A19" s="78">
+      <c r="A19" s="60">
         <v>2018</v>
       </c>
-      <c r="B19" s="94">
+      <c r="B19" s="76">
         <v>980</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="85"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="1:17" ht="18">
-      <c r="A20" s="82">
+      <c r="A20" s="64">
         <f>A19+1</f>
         <v>2019</v>
       </c>
-      <c r="B20" s="95">
+      <c r="B20" s="77">
         <v>1100</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="85"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="67"/>
     </row>
     <row r="21" spans="1:17" ht="18">
-      <c r="A21" s="82">
+      <c r="A21" s="64">
         <f t="shared" ref="A21:A26" si="0">A20+1</f>
         <v>2020</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="77">
         <v>1400</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="85"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:17" ht="18">
-      <c r="A22" s="82">
+      <c r="A22" s="64">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="B22" s="95">
+      <c r="B22" s="77">
         <v>1123</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="85"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="67"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
     </row>
     <row r="23" spans="1:17" ht="16">
-      <c r="A23" s="82">
+      <c r="A23" s="64">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="77">
         <v>1670</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
     </row>
     <row r="24" spans="1:17" ht="16">
-      <c r="A24" s="82">
+      <c r="A24" s="64">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="B24" s="95">
+      <c r="B24" s="77">
         <v>2005</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
     </row>
     <row r="25" spans="1:17" ht="16">
-      <c r="A25" s="82">
+      <c r="A25" s="64">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="B25" s="95">
+      <c r="B25" s="77">
         <v>2500</v>
       </c>
-      <c r="D25" s="72"/>
+      <c r="D25" s="54"/>
     </row>
     <row r="26" spans="1:17" ht="18">
-      <c r="A26" s="82">
+      <c r="A26" s="64">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="B26" s="95">
+      <c r="B26" s="77">
         <v>2790</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="85"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="18">
-      <c r="A27" s="82"/>
-      <c r="B27" s="95"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="98"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="77"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/topic03-microsoft-excel/unit-3-labs-week-7/archive-2/exercise-3/Exercises-3.xlsx
+++ b/topic03-microsoft-excel/unit-3-labs-week-7/archive-2/exercise-3/Exercises-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/topic03-microsoft-excel/unit-3-labs-week-7/archive-2/exercise-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F6322F-BBB7-ED42-81F8-21F947402A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FBC735-EB0C-3E42-BD40-31C5C8E4BC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17760" tabRatio="749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PloughingChampionship" sheetId="20" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Part 1</t>
   </si>
   <si>
-    <t>Calculate each students correct weighted result and then the overall average.</t>
-  </si>
-  <si>
     <t>Overall</t>
   </si>
   <si>
@@ -259,15 +256,6 @@
   </si>
   <si>
     <t>Part 2</t>
-  </si>
-  <si>
-    <t>Present all the information/values from part 1, SORT THE DATA, by surname</t>
-  </si>
-  <si>
-    <t>and calculate all values again with exam weights of      .1,    .3,   .6 respectively</t>
-  </si>
-  <si>
-    <t>Omit the 4th student from the Overall average answer.</t>
   </si>
   <si>
     <t xml:space="preserve">Student Results -weighting of marks, sorting, conditional formatting. </t>
@@ -388,6 +376,16 @@
 The data should be sorted on name in ascending order.
 Part 3) 
 Copy the details again (with weightings) from Part 1. This time, sort based on the overall mark in Descending order. 
+</t>
+  </si>
+  <si>
+    <t>Calculate each students correct weighted result and then the overall average.
+Then apply conditional formatting as per instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present all the information/values from part 1, SORT THE DATA, by surname
+Apply new weightings as per instructions,
+Apply contitional formatting as per instructions. 
 </t>
   </si>
 </sst>
@@ -870,7 +868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1128,6 +1126,48 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1139,6 +1179,15 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1168,6 +1217,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1175,9 +1244,47 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1330,7 +1437,7 @@
     <xf numFmtId="0" fontId="31" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1427,9 +1534,8 @@
     </xf>
     <xf numFmtId="2" fontId="36" fillId="19" borderId="16" xfId="72" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1450,10 +1556,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1476,10 +1582,10 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="43" fillId="18" borderId="22" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="43" fillId="18" borderId="27" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="43" fillId="18" borderId="2" xfId="74" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,7 +1597,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1512,14 +1618,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="33" xfId="73" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -2059,14 +2235,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
       <c r="H1" s="5"/>
       <c r="I1" s="3"/>
     </row>
@@ -2865,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AED8B6-C8E4-1946-80AA-C7F047103217}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2881,19 +3057,19 @@
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="16" thickBot="1">
       <c r="A1" s="28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="21">
       <c r="A2" s="28"/>
       <c r="C2" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G2" s="39"/>
       <c r="M2" s="89" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N2" s="90"/>
       <c r="O2" s="90"/>
@@ -2903,444 +3079,467 @@
       <c r="S2" s="90"/>
       <c r="T2" s="90"/>
       <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
+      <c r="V2" s="91"/>
     </row>
     <row r="3" spans="1:22" ht="31.25" customHeight="1">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="39"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="94"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="39"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-    </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1">
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+    </row>
+    <row r="5" spans="1:22" ht="4" customHeight="1">
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="94"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="94"/>
+    </row>
+    <row r="7" spans="1:22" ht="32" customHeight="1">
+      <c r="A7" s="41"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="104"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="94"/>
+    </row>
+    <row r="8" spans="1:22" s="36" customFormat="1" ht="32">
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="41"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-    </row>
-    <row r="8" spans="1:22" s="36" customFormat="1" ht="32">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="88" t="s">
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="94"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="85" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="86">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="86">
+        <v>1</v>
+      </c>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="94"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="94"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="87">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="87">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="87">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="87">
-        <v>1</v>
-      </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85">
         <v>67</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="85">
         <v>23</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="85">
         <v>56</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="85">
         <v>78</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
+      <c r="G11" s="85"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="94"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86">
+        <v>68</v>
+      </c>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85">
         <v>24</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="85">
         <v>39</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="85">
         <v>23</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="85">
         <v>56</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
+      <c r="G12" s="85"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="94"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85">
+        <v>40</v>
+      </c>
+      <c r="D13" s="85">
+        <v>60</v>
+      </c>
+      <c r="E13" s="85">
+        <v>44</v>
+      </c>
+      <c r="F13" s="85">
+        <v>67</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="K13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86">
-        <v>40</v>
-      </c>
-      <c r="D13" s="86">
-        <v>60</v>
-      </c>
-      <c r="E13" s="86">
-        <v>44</v>
-      </c>
-      <c r="F13" s="86">
+      <c r="M13" s="92"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="94"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85">
+        <v>33</v>
+      </c>
+      <c r="D14" s="85">
+        <v>46</v>
+      </c>
+      <c r="E14" s="85">
+        <v>55</v>
+      </c>
+      <c r="F14" s="85">
         <v>67</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="K13" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86">
-        <v>33</v>
-      </c>
-      <c r="D14" s="86">
-        <v>46</v>
-      </c>
-      <c r="E14" s="86">
-        <v>55</v>
-      </c>
-      <c r="F14" s="86">
-        <v>67</v>
-      </c>
-      <c r="G14" s="86"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
+      <c r="G14" s="85"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="94"/>
     </row>
     <row r="15" spans="1:22" ht="16" thickBot="1">
-      <c r="A15" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86">
+      <c r="A15" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85">
         <v>23</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="85">
         <v>45</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="85">
         <v>12</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="85">
         <v>77</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
+      <c r="G15" s="85"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="94"/>
     </row>
     <row r="16" spans="1:22" ht="25" thickBot="1">
       <c r="H16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K16" s="44"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="94"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1">
       <c r="K17" s="45"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="94"/>
     </row>
     <row r="18" spans="1:22" ht="16" thickBot="1">
       <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="47"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="94"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
+      <c r="A19" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
       <c r="K19" s="45"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="94"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
       <c r="K20" s="45"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="94"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="B21" s="48" t="s">
-        <v>39</v>
-      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="114"/>
       <c r="K21" s="45"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-    </row>
-    <row r="22" spans="1:22" ht="34" customHeight="1">
-      <c r="C22" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="91" t="s">
-        <v>29</v>
+      <c r="M21" s="92"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="94"/>
+    </row>
+    <row r="22" spans="1:22" ht="34" customHeight="1" thickBot="1">
+      <c r="C22" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>28</v>
       </c>
       <c r="K22" s="45"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="97"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="45"/>
     </row>
@@ -3351,16 +3550,16 @@
       <c r="K24" s="45"/>
     </row>
     <row r="28" spans="1:22" ht="16" thickBot="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="1:22" ht="25" thickBot="1">
       <c r="H29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K29" s="44"/>
     </row>
@@ -3371,8 +3570,10 @@
       <c r="K31" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="M2:V22"/>
+    <mergeCell ref="B19:H21"/>
+    <mergeCell ref="C6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3394,369 +3595,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+    </row>
+    <row r="2" spans="1:17" ht="16">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:17" ht="17" thickBot="1">
+      <c r="A3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="49"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" thickBot="1">
+      <c r="A4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-    </row>
-    <row r="2" spans="1:17" ht="16">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-    </row>
-    <row r="3" spans="1:17" ht="17" thickBot="1">
-      <c r="A3" s="51" t="s">
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+    </row>
+    <row r="5" spans="1:17" ht="19">
+      <c r="A5" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" thickBot="1">
-      <c r="A4" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-    </row>
-    <row r="5" spans="1:17" ht="19">
-      <c r="A5" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="60">
+      <c r="B5" s="59">
         <v>5</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>47</v>
+      <c r="F5" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
     </row>
     <row r="6" spans="1:17" ht="19">
-      <c r="A6" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="64">
+      <c r="A6" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="63">
         <v>10</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
+      <c r="F6" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="61"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
     </row>
     <row r="7" spans="1:17" ht="19">
-      <c r="A7" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="64">
+      <c r="A7" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="63">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="66"/>
+      <c r="F7" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="65"/>
     </row>
     <row r="8" spans="1:17" ht="19">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="19">
         <v>4</v>
       </c>
-      <c r="F8" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
+      <c r="F8" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
     </row>
     <row r="9" spans="1:17" ht="20" thickBot="1">
-      <c r="A9" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="D9" s="54"/>
+      <c r="A9" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="19">
         <v>5</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
+      <c r="F9" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:17" ht="20" thickBot="1">
-      <c r="A10" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="54"/>
+      <c r="A10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="53"/>
       <c r="E10" s="19">
         <v>6</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+    </row>
+    <row r="11" spans="1:17" ht="19">
+      <c r="A11" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="59">
+        <v>500</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="67">
+        <v>7</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="20" thickBot="1">
+      <c r="A12" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="63">
+        <v>900</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="68">
+        <v>8</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-    </row>
-    <row r="11" spans="1:17" ht="19">
-      <c r="A11" s="60" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="18">
+      <c r="A13" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="60">
-        <v>500</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="68">
-        <v>7</v>
-      </c>
-      <c r="F11" s="65" t="s">
+      <c r="B13" s="63">
+        <v>1200</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="66"/>
+    </row>
+    <row r="14" spans="1:17" ht="18">
+      <c r="A14" s="63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="20" thickBot="1">
-      <c r="A12" s="64" t="s">
+      <c r="B14" s="63">
+        <v>600</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="66"/>
+    </row>
+    <row r="15" spans="1:17" ht="18">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="66"/>
+    </row>
+    <row r="16" spans="1:17" ht="19" thickBot="1">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="66"/>
+    </row>
+    <row r="17" spans="1:17" ht="18">
+      <c r="A17" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="64">
-        <v>900</v>
-      </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="69">
-        <v>8</v>
-      </c>
-      <c r="F12" s="70" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="66"/>
+    </row>
+    <row r="18" spans="1:17" ht="18">
+      <c r="A18" s="73" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="18">
-      <c r="A13" s="64" t="s">
+      <c r="B18" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="64">
-        <v>1200</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="1:17" ht="18">
-      <c r="A14" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="64">
-        <v>600</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="67"/>
-    </row>
-    <row r="15" spans="1:17" ht="18">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="67"/>
-    </row>
-    <row r="16" spans="1:17" ht="19" thickBot="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="67"/>
-    </row>
-    <row r="17" spans="1:17" ht="18">
-      <c r="A17" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="67"/>
-    </row>
-    <row r="18" spans="1:17" ht="18">
-      <c r="A18" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="67"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19" spans="1:17" ht="18">
-      <c r="A19" s="60">
+      <c r="A19" s="59">
         <v>2018</v>
       </c>
-      <c r="B19" s="76">
+      <c r="B19" s="75">
         <v>980</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="67"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:17" ht="18">
-      <c r="A20" s="64">
+      <c r="A20" s="63">
         <f>A19+1</f>
         <v>2019</v>
       </c>
-      <c r="B20" s="77">
+      <c r="B20" s="76">
         <v>1100</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="67"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="1:17" ht="18">
-      <c r="A21" s="64">
+      <c r="A21" s="63">
         <f t="shared" ref="A21:A26" si="0">A20+1</f>
         <v>2020</v>
       </c>
-      <c r="B21" s="77">
+      <c r="B21" s="76">
         <v>1400</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:17" ht="18">
-      <c r="A22" s="64">
+      <c r="A22" s="63">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="B22" s="77">
+      <c r="B22" s="76">
         <v>1123</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="67"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="66"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
     </row>
     <row r="23" spans="1:17" ht="16">
-      <c r="A23" s="64">
+      <c r="A23" s="63">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="76">
         <v>1670</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
     </row>
     <row r="24" spans="1:17" ht="16">
-      <c r="A24" s="64">
+      <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="B24" s="77">
+      <c r="B24" s="76">
         <v>2005</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
     </row>
     <row r="25" spans="1:17" ht="16">
-      <c r="A25" s="64">
+      <c r="A25" s="63">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="B25" s="77">
+      <c r="B25" s="76">
         <v>2500</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="53"/>
     </row>
     <row r="26" spans="1:17" ht="18">
-      <c r="A26" s="64">
+      <c r="A26" s="63">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="B26" s="77">
+      <c r="B26" s="76">
         <v>2790</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="67"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="66"/>
     </row>
     <row r="27" spans="1:17" ht="18">
-      <c r="A27" s="64"/>
-      <c r="B27" s="77"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="78"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="76"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
